--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rcd53a8768f6c4808"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Reb5eb90695474429"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Reb5eb90695474429"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Redeb140ae7c54643"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/86_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Redeb140ae7c54643"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R12b1ceb136dc4e6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
